--- a/projecao_consumo_regiao.xlsx
+++ b/projecao_consumo_regiao.xlsx
@@ -22,10 +22,10 @@
     <t>Região</t>
   </si>
   <si>
-    <t>Proj. Populacao</t>
+    <t>Populacao</t>
   </si>
   <si>
-    <t>Item</t>
+    <t>Items</t>
   </si>
   <si>
     <t>Total</t>
